--- a/example/procinfo.xlsx
+++ b/example/procinfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZT717572\Documents\develop\ProcGA\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CC262961-CABB-4C2E-9C77-835D3B792587}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{25E3D88F-64E4-4CE8-A6B3-EF459A3C1D82}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2" xr2:uid="{84948B56-F5B5-4C78-83BE-8241D0FEC8CE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{84948B56-F5B5-4C78-83BE-8241D0FEC8CE}"/>
   </bookViews>
   <sheets>
     <sheet name="procinfo" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>annea_bs</t>
     <phoneticPr fontId="1"/>
@@ -153,6 +153,10 @@
   </si>
   <si>
     <t>vcalib</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>grp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -662,9 +666,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6C024C-9753-448E-A5C3-EAEE33CC92FF}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -673,7 +677,7 @@
     <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -686,8 +690,11 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -700,8 +707,11 @@
       <c r="D2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -713,6 +723,9 @@
       </c>
       <c r="D3">
         <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -725,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD28F70-5051-4124-8F43-648B77075FDB}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
